--- a/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-mitigations.xlsx
+++ b/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-mitigations.xlsx
@@ -1645,118 +1645,118 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Common Conditional Access Policies),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: AWS Data Perimeters)</t>
-  </si>
-  <si>
-    <t>(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft MS14-025),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity DCSync Sept 2015),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Replication ACL),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: STIG krbtgt reset),(Citation: Microsoft Protected Users Security Group)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft File Folder Exclusions),(Citation: Microsoft AMSI June 2015),(Citation: Mandiant Cloudy Logs 2023),(Citation: ReasonLabs),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main)</t>
-  </si>
-  <si>
-    <t>(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Unit 42 Palo Alto GitHub Actions Supply Chain Attack 2025),(Citation: Okta DPoP 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Comparitech Replay Attack),(Citation: FireEye DLL Side-Loading),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Token Protection 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft CreateProcess),(Citation: Google Cloud Threat Intelligence ESXi VIBs 2022),(Citation: GitHub Bloodhound),(Citation: GitHub PSPKIAudit),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: AWS DB VPC),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Powersploit),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant Azure AD Backdoors),(Citation: Microsoft Get-InboxRule),(Citation: audits linikatz),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Vulnerability and Exploit Detector),(Citation: Brining MimiKatz to Unix),(Citation: AWS Management Account Best Practices),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: MITRE VMware Abuse 2024),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft Sxstrace),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Mandiant Cloudy Logs 2023),(Citation: Github UACMe),(Citation: GitHub Certify),(Citation: TCC macOS bypass),(Citation: FireEye ADFS),(Citation: CodeX Microsoft Defender 2021),(Citation: MagicWeb),(Citation: Kubernetes Hardening Guide),(Citation: W3C)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Halcyon AWS Ransomware 2025),(Citation: win10_asr),(Citation: Microsoft_rec_block_rules),(Citation: Obfuscated scripts),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: ESET LoJax Sept 2018),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Crowdstrike Hypervisor Jackpotting Pt 2 2021),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Workspace Data Loss Prevention),(Citation: Microsoft Purview Data Loss Prevention)</t>
-  </si>
-  <si>
-    <t>(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable Macros),(Citation: Microsoft Entra Configure OAuth Consent),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Disable Autorun),(Citation: Electron Security 2),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Broadcom ESXi Lockdown Mode),(Citation: ADSecurity Windows Secure Baseline),(Citation: TechNet Screensaver GP),(Citation: Microsoft Learn ClickOnce Config),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Amazon AWS IMDS V2),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft BEC Campaign),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft Network access Credential Manager),(Citation: Gmail Delegation),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: GitHub MOTW),(Citation: Broadcom ESXi SSH),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: MRWLabs Office Persistence Add-ins),(Citation: NetSPI ClickOnce),(Citation: ITSyndicate Disabling PHP functions),(Citation: TechNet Removable Media Control),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Google Cloud Encryption Key Rotation)</t>
+    <t>(Citation: Okta Block Anonymizing Services),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Microsoft Common Conditional Access Policies),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: AWS Data Perimeters)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Replication ACL),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft MS14-025),(Citation: AdSecurity DCSync Sept 2015),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: SpecterOps Certified Pre Owned)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft AMSI June 2015),(Citation: Microsoft File Folder Exclusions),(Citation: Anomali Template Injection MAR 2018),(Citation: ReasonLabs),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Token Protection 2023),(Citation: FireEye DLL Side-Loading),(Citation: Okta DPoP 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Unit 42 Palo Alto GitHub Actions Supply Chain Attack 2025),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Dynamic-Link Library Security),(Citation: GitHub Bloodhound),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: CodeX Microsoft Defender 2021),(Citation: AWS Management Account Best Practices),(Citation: audits linikatz),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Github UACMe),(Citation: GitHub PSPKIAudit),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Microsoft Sxstrace),(Citation: SpecterOps Certified Pre Owned),(Citation: Vulnerability and Exploit Detector),(Citation: AWS DB VPC),(Citation: MITRE VMware Abuse 2024),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Google Cloud Threat Intelligence ESXi VIBs 2022),(Citation: Microsoft Get-InboxRule),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Brining MimiKatz to Unix),(Citation: Mandiant Azure AD Backdoors),(Citation: MagicWeb),(Citation: Powersploit),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: GitHub Certify),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: W3C),(Citation: Mandiant Cloudy Logs 2023),(Citation: TCC macOS bypass),(Citation: FireEye ADFS),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft CreateProcess),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification)</t>
+  </si>
+  <si>
+    <t>(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules),(Citation: Halcyon AWS Ransomware 2025),(Citation: win10_asr),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: TechNet Secure Boot Process),(Citation: ESET LoJax Sept 2018),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Intel Hardware-based Security Technologies)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Enable Cred Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Crowdstrike Hypervisor Jackpotting Pt 2 2021),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Disable Autorun),(Citation: Microsoft BEC Campaign),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable Macros),(Citation: Broadcom ESXi SSH),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: Electron Security 2),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Symantec SSH and ssh-agent),(Citation: SpecterOps Certified Pre Owned),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Entra Configure OAuth Consent),(Citation: Microsoft Disable DCOM),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Learn ClickOnce Config),(Citation: NetSPI ClickOnce),(Citation: Microsoft Disable VBA Jan 2020),(Citation: TechNet Screensaver GP),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: GitHub MOTW),(Citation: Broadcom ESXi Lockdown Mode),(Citation: Microsoft Network access Credential Manager)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Primary Refresh Token),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Driver Block Rules),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft WDAC),(Citation: Kernel.org Restrict Kernel Module),(Citation: Kernel Self Protection Project),(Citation: LKM loading kernel restrictions),(Citation: Electron Security 3),(Citation: NSA MS AppLocker),(Citation: Microsoft Dev Tunnels Group Policies),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Technospot Chrome Extensions GP),(Citation: SANS Application Whitelisting),(Citation: Corio 2008),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Using Software Restriction ),(Citation: Wikibooks Grsecurity),(Citation: Microsoft PowerShell CLM),(Citation: Beechey 2010),(Citation: Default VBS macros Blocking ),(Citation: file_upload_attacks_pt2),(Citation: Kubernetes Security Context),(Citation: Microsoft AppLocker DLL),(Citation: Microsoft Dev Tunnels Group Policy Mitigation),(Citation: Microsoft Application Lockdown),(Citation: Increasing Linux kernel integrity),(Citation: Windows Commands JPCERT),(Citation: Microsoft Windows Defender Application Control),(Citation: Kubernetes Hardening Guide)</t>
-  </si>
-  <si>
-    <t>(Citation: Corio 2008),(Citation: TechNet Applocker vs SRP),(Citation: Beechey 2010),(Citation: Secure Host Baseline EMET),(Citation: TechNet Moving Beyond EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: Windows Commands JPCERT),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Broadcom VMCI Firewall),(Citation: CERT-EU DDoS March 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: Juniper DAI 2020),(Citation: Microsoft SMB Packet Signing),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft Preventing SMB),(Citation: US-CERT APT Energy Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security),(Citation: TechNet RDP Gateway),(Citation: Sygnia ESXi Ransomware 2024),(Citation: Docker Daemon Socket Protect)</t>
+    <t>(Citation: Microsoft Using Software Restriction ),(Citation: Kernel Self Protection Project),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Microsoft Dev Tunnels Group Policy Mitigation),(Citation: Default VBS macros Blocking ),(Citation: Wikibooks Grsecurity),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Application Lockdown),(Citation: Kernel.org Restrict Kernel Module),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Technospot Chrome Extensions GP),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft PowerShell CLM),(Citation: Windows Commands JPCERT),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft AppLocker DLL),(Citation: Electron Security 3),(Citation: SANS Application Whitelisting),(Citation: Microsoft WDAC),(Citation: Microsoft Dev Tunnels Group Policies),(Citation: LKM loading kernel restrictions),(Citation: Kubernetes Security Context),(Citation: Corio 2008),(Citation: Kubernetes Hardening Guide)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA MS AppLocker),(Citation: Secure Host Baseline EMET),(Citation: Beechey 2010),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Moving Beyond EMET),(Citation: Windows Commands JPCERT)</t>
+  </si>
+  <si>
+    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: Broadcom VMCI Firewall),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Juniper DAI 2020),(Citation: byt3bl33d3r NTLM Relaying),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT APT Energy Oct 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes Cloud Native Security),(Citation: Sygnia ESXi Ransomware 2024),(Citation: TechNet RDP Gateway)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: AWS - IAM Console Best Practices),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: US-CERT-TA18-106A),(Citation: Akamai DGA Mitigation),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Cybereason Dissecting DGAs)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts)</t>
-  </si>
-  <si>
-    <t>(Citation: reagentc_cmd),(Citation: Tilbury Windows Credentials),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechNet RDP NLA),(Citation: TechNet Removable Media Control),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: EnableMPRNotifications),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft WDigest Mit),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft BITS),(Citation: Windows RDP Sessions),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Seqrite DoubleExtension)</t>
+    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS - IAM Console Best Practices),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: CISA MFA PrintNightmare),(Citation: Berkley Secure),(Citation: Microsoft - Device Registration),(Citation: Mandiant APT29 Microsoft 365 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco Umbrella DGA Brute Force),(Citation: Anomali Template Injection MAR 2018),(Citation: Akamai DGA Mitigation),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Server Operator Scheduled Task),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft WDigest Mit),(Citation: EnableMPRNotifications),(Citation: TechNet RDP NLA),(Citation: Seqrite DoubleExtension),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: HowToGeek ShowExtension),(Citation: Microsoft BITS),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Tilbury Windows Credentials),(Citation: Windows RDP Sessions)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Scheduling Priority),(Citation: Kubernetes Service Accounts),(Citation: Microsoft COM ACL),(Citation: Microsoft Remote Use of Local),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Create Token),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft PS JEA),(Citation: FireEye WMI 2015),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Securing Privileged Access),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Tilbury Windows Credentials),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft runas),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft System Wide Com Keys),(Citation: CyberArk Labs Safe Mode 2016),(Citation: TechNet Credential Theft),(Citation: FireEye ADFS),(Citation: TechNet Least Privilege),(Citation: MagicWeb),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Replace Process Token)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014)</t>
+    <t>(Citation: AWS - IAM Console Best Practices),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Replace Process Token),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye WMI 2015),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft runas),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Create Token),(Citation: TechNet Credential Theft),(Citation: Microsoft System Wide Com Keys),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: TechNet Least Privilege),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Securing Privileged Access),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local),(Citation: TechNet Scheduling Priority),(Citation: MagicWeb),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Service Accounts),(Citation: FireEye ADFS),(Citation: Kubernetes Hardening Guide),(Citation: Tilbury Windows Credentials),(Citation: Protecting Microsoft 365 From On-Premises Attacks)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links),(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Azure AD Admin Consent),(Citation: site notifications - krebsonsecurity),(Citation: mac security virus popup),(Citation: Defending Against Malicious Cyber Activity Originating from Tor),(Citation: NetSPI ClickOnce),(Citation: push notifications -infosecinstitute)</t>
-  </si>
-  <si>
-    <t>(Citation: ACSC Email Spoofing),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: Palo Alto Office Test Sofacy),(Citation: Session Management Cheat Sheet),(Citation: Cisco Securing SNMP),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: DNS-msft),(Citation: Azure Subscription Policies),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Google Workspace External Sharing),(Citation: Microsoft 365 External Sharing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: CloudSploit - Unused AWS Regions),(Citation: Chromium HSTS),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Token tactics),(Citation: Wikipedia HPKP)</t>
-  </si>
-  <si>
-    <t>(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: NSA Spotting),(Citation: Github UACMe),(Citation: Browser-updates),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: Cisco Blog Legacy Device Attacks),(Citation: MS14-025)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes RBAC),(Citation: Mandiant M-Trends 2020),(Citation: Symantec BITS May 2007),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft WMI Filters),(Citation: Microsoft GPO Security Filtering),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon S3 Security, 2019),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Broadcom Virtual Machine Guest Operations Privileges),(Citation: Expel IO Evil in AWS),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: UCF STIG Symbolic Links),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Apple TN2459 Kernel Extensions),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft ETW May 2018),(Citation: Office 365 Partner Relationships),(Citation: Kubernetes Hardening Guide)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA Phishing),(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac),(Citation: Cyber Safety Review Board: Lapsus)</t>
+    <t>(Citation: win_xml_evt_log),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation),(Citation: Microsoft ETW May 2018),(Citation: cisco_deploy_rsa_keys)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
+  </si>
+  <si>
+    <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent),(Citation: mac security virus popup),(Citation: site notifications - krebsonsecurity),(Citation: Defending Against Malicious Cyber Activity Originating from Tor),(Citation: push notifications -infosecinstitute)</t>
+  </si>
+  <si>
+    <t>(Citation: Token tactics),(Citation: Palo Alto Office Test Sofacy),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Session Management Cheat Sheet),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Azure Subscription Policies),(Citation: Microsoft 365 External Sharing),(Citation: Microsoft Anti Spoofing),(Citation: DNS-msft),(Citation: Cisco Securing SNMP),(Citation: Chromium HSTS),(Citation: Google Workspace External Sharing),(Citation: Wikipedia HPKP),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: ACSC Email Spoofing)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: Browser-updates),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page),(Citation: MS14-025)</t>
+  </si>
+  <si>
+    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
+  </si>
+  <si>
+    <t>(Citation: MDMProfileConfigMacOS),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant M-Trends 2020),(Citation: Symantec BITS May 2007),(Citation: Apple TN2459 Kernel Extensions),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Broadcom Virtual Machine Guest Operations Privileges),(Citation: UCF STIG Symbolic Links),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft ETW May 2018),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Office 365 Partner Relationships),(Citation: Wald0 Guide to GPOs),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft WMI Filters),(Citation: Expel IO Evil in AWS),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes RBAC)</t>
+  </si>
+  <si>
+    <t>(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-mitigations.xlsx
+++ b/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-mitigations.xlsx
@@ -1645,118 +1645,118 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: Okta Block Anonymizing Services),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Microsoft Common Conditional Access Policies),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: AWS Data Perimeters)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Replication ACL),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft MS14-025),(Citation: AdSecurity DCSync Sept 2015),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: SpecterOps Certified Pre Owned)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft AMSI June 2015),(Citation: Microsoft File Folder Exclusions),(Citation: Anomali Template Injection MAR 2018),(Citation: ReasonLabs),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Token Protection 2023),(Citation: FireEye DLL Side-Loading),(Citation: Okta DPoP 2023),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Unit 42 Palo Alto GitHub Actions Supply Chain Attack 2025),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Dynamic-Link Library Security),(Citation: GitHub Bloodhound),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: CodeX Microsoft Defender 2021),(Citation: AWS Management Account Best Practices),(Citation: audits linikatz),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Github UACMe),(Citation: GitHub PSPKIAudit),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Microsoft Sxstrace),(Citation: SpecterOps Certified Pre Owned),(Citation: Vulnerability and Exploit Detector),(Citation: AWS DB VPC),(Citation: MITRE VMware Abuse 2024),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Google Cloud Threat Intelligence ESXi VIBs 2022),(Citation: Microsoft Get-InboxRule),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Brining MimiKatz to Unix),(Citation: Mandiant Azure AD Backdoors),(Citation: MagicWeb),(Citation: Powersploit),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: GitHub Certify),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: W3C),(Citation: Mandiant Cloudy Logs 2023),(Citation: TCC macOS bypass),(Citation: FireEye ADFS),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft CreateProcess),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification)</t>
-  </si>
-  <si>
-    <t>(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules),(Citation: Halcyon AWS Ransomware 2025),(Citation: win10_asr),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Obfuscated scripts),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: TechNet Secure Boot Process),(Citation: ESET LoJax Sept 2018),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Intel Hardware-based Security Technologies)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Enable Cred Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Crowdstrike Hypervisor Jackpotting Pt 2 2021),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Purview Data Loss Prevention),(Citation: Google Workspace Data Loss Prevention)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Disable Autorun),(Citation: Microsoft BEC Campaign),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable Macros),(Citation: Broadcom ESXi SSH),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: Electron Security 2),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Symantec SSH and ssh-agent),(Citation: SpecterOps Certified Pre Owned),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Entra Configure OAuth Consent),(Citation: Microsoft Disable DCOM),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Learn ClickOnce Config),(Citation: NetSPI ClickOnce),(Citation: Microsoft Disable VBA Jan 2020),(Citation: TechNet Screensaver GP),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: GitHub MOTW),(Citation: Broadcom ESXi Lockdown Mode),(Citation: Microsoft Network access Credential Manager)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Primary Refresh Token),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned)</t>
+    <t>(Citation: Okta Block Anonymizing Services),(Citation: Google Workspace Apps Script Restrict OAuth Scopes),(Citation: Microsoft Developer Support Power Apps Conditional Access),(Citation: Microsoft Common Conditional Access Policies),(Citation: AWS Data Perimeters)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MS14-025),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Mandiant Defend UNC2452 White Paper)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft File Folder Exclusions),(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: ReasonLabs)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Microsoft Token Protection 2023),(Citation: Comparitech Replay Attack),(Citation: Unit 42 Palo Alto GitHub Actions Supply Chain Attack 2025),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Cider Security Top 10 CICD Security Risks),(Citation: Okta DPoP 2023),(Citation: Apple App Security Overview)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View)</t>
+  </si>
+  <si>
+    <t>(Citation: AWS DB VPC),(Citation: Brining MimiKatz to Unix),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Mandiant Azure AD Backdoors),(Citation: GitHub Certify),(Citation: AWS Management Account Best Practices),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Sxstrace),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: GitHub PSPKIAudit),(Citation: Google Cloud Threat Intelligence ESXi VIBs 2022),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: SpecterOps Certified Pre Owned),(Citation: TCC macOS bypass),(Citation: Powersploit),(Citation: Amazon S3 Security, 2019),(Citation: Vulnerability and Exploit Detector),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: W3C),(Citation: GitHub Bloodhound),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Get-InboxRule),(Citation: Mandiant Cloudy Logs 2023),(Citation: audits linikatz),(Citation: Microsoft CreateProcess),(Citation: CodeX Microsoft Defender 2021),(Citation: MITRE VMware Abuse 2024),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: FireEye ADFS),(Citation: Microsoft Preauthentication Jul 2012)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft_rec_block_rules),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules),(Citation: Microsoft ASR Obfuscation),(Citation: Halcyon AWS Ransomware 2025),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Obfuscated scripts)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Secure Boot Process),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Microsoft Learn ClickOnce and Authenticode),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017),(Citation: Brining MimiKatz to Unix),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard)</t>
+  </si>
+  <si>
+    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Crowdstrike Hypervisor Jackpotting Pt 2 2021),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Workspace Data Loss Prevention),(Citation: Microsoft Purview Data Loss Prevention)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Disable Autorun),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: TechNet Removable Media Control),(Citation: Electron Security 2),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft Entra Configure OAuth Consent),(Citation: Microsoft Disable DCOM),(Citation: Symantec SSH and ssh-agent),(Citation: MRWLabs Office Persistence Add-ins),(Citation: TechNet Screensaver GP),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Learn ClickOnce Config),(Citation: GitHub MOTW),(Citation: Amazon AWS IMDS V2),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: NetSPI ClickOnce),(Citation: Microsoft BEC Campaign),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable Macros),(Citation: ADSecurity Windows Secure Baseline),(Citation: Broadcom ESXi SSH),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Broadcom ESXi Lockdown Mode),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Gmail Delegation),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing)</t>
+  </si>
+  <si>
+    <t>(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: Amazon S3 Security, 2019),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Using Software Restriction ),(Citation: Kernel Self Protection Project),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Microsoft Dev Tunnels Group Policy Mitigation),(Citation: Default VBS macros Blocking ),(Citation: Wikibooks Grsecurity),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Application Lockdown),(Citation: Kernel.org Restrict Kernel Module),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Technospot Chrome Extensions GP),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft PowerShell CLM),(Citation: Windows Commands JPCERT),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft AppLocker DLL),(Citation: Electron Security 3),(Citation: SANS Application Whitelisting),(Citation: Microsoft WDAC),(Citation: Microsoft Dev Tunnels Group Policies),(Citation: LKM loading kernel restrictions),(Citation: Kubernetes Security Context),(Citation: Corio 2008),(Citation: Kubernetes Hardening Guide)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA MS AppLocker),(Citation: Secure Host Baseline EMET),(Citation: Beechey 2010),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Moving Beyond EMET),(Citation: Windows Commands JPCERT)</t>
-  </si>
-  <si>
-    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: Broadcom VMCI Firewall),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Juniper DAI 2020),(Citation: byt3bl33d3r NTLM Relaying),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT APT Energy Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes Cloud Native Security),(Citation: Sygnia ESXi Ransomware 2024),(Citation: TechNet RDP Gateway)</t>
+    <t>(Citation: Kubernetes Security Context),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Driver Block Rules),(Citation: Windows Commands JPCERT),(Citation: Technospot Chrome Extensions GP),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Application Lockdown),(Citation: SANS Application Whitelisting),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft Dev Tunnels Group Policies),(Citation: Kubernetes Hardening Guide),(Citation: file_upload_attacks_pt2),(Citation: Google Cloud Threat Intelligence ESXi Hardening 2023),(Citation: Microsoft Using Software Restriction ),(Citation: NSA MS AppLocker),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Beechey 2010),(Citation: Microsoft AppLocker DLL),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Dev Tunnels Group Policy Mitigation),(Citation: Default VBS macros Blocking ),(Citation: TechNet Applocker vs SRP),(Citation: Electron Security 3),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft PowerShell CLM),(Citation: Corio 2008),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft WDAC),(Citation: Kernel Self Protection Project),(Citation: Kernel.org Restrict Kernel Module)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Moving Beyond EMET),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: Beechey 2010),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Wikipedia Control Flow Integrity)</t>
+  </si>
+  <si>
+    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: Broadcom VMCI Firewall),(Citation: Juniper DAI 2020),(Citation: ntlm_relaying_kerberos_del),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: Microsoft Preventing SMB)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Microsoft AKS Azure AD 2023),(Citation: Sygnia ESXi Ransomware 2024)</t>
   </si>
   <si>
     <t>(Citation: Cider Security Top 10 CICD Security Risks)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS - IAM Console Best Practices),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: CISA MFA PrintNightmare),(Citation: Berkley Secure),(Citation: Microsoft - Device Registration),(Citation: Mandiant APT29 Microsoft 365 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco Umbrella DGA Brute Force),(Citation: Anomali Template Injection MAR 2018),(Citation: Akamai DGA Mitigation),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Server Operator Scheduled Task),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft WDigest Mit),(Citation: EnableMPRNotifications),(Citation: TechNet RDP NLA),(Citation: Seqrite DoubleExtension),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: HowToGeek ShowExtension),(Citation: Microsoft BITS),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Tilbury Windows Credentials),(Citation: Windows RDP Sessions)</t>
+    <t>(Citation: Expel IO Evil in AWS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CISA MFA PrintNightmare),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Berkley Secure),(Citation: AWS - IAM Console Best Practices),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft - Device Registration)</t>
+  </si>
+  <si>
+    <t>(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: Akamai DGA Mitigation),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT-TA18-106A)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: HowToGeek ShowExtension),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Tilbury Windows Credentials),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Seqrite DoubleExtension),(Citation: reagentc_cmd),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet RDP NLA),(Citation: TechNet Removable Media Control),(Citation: Microsoft WDigest Mit),(Citation: EnableMPRNotifications),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Server Operator Scheduled Task),(Citation: Windows RDP Sessions),(Citation: Microsoft BITS)</t>
   </si>
   <si>
     <t>(Citation: TrustedSec OOB Communications)</t>
   </si>
   <si>
-    <t>(Citation: AWS - IAM Console Best Practices),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Replace Process Token),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye WMI 2015),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft runas),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Create Token),(Citation: TechNet Credential Theft),(Citation: Microsoft System Wide Com Keys),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: TechNet Least Privilege),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Securing Privileged Access),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local),(Citation: TechNet Scheduling Priority),(Citation: MagicWeb),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Service Accounts),(Citation: FireEye ADFS),(Citation: Kubernetes Hardening Guide),(Citation: Tilbury Windows Credentials),(Citation: Protecting Microsoft 365 From On-Premises Attacks)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA)</t>
+    <t>(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Replace Process Token),(Citation: TechNet Least Privilege),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft System Wide Com Keys),(Citation: TechNet Credential Theft),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: Tilbury Windows Credentials),(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local),(Citation: MagicWeb),(Citation: TechNet Scheduling Priority),(Citation: Microsoft Create Token),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft runas),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Securing Privileged Access),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Service Accounts),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: CyberArk Labs Safe Mode 2016),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: FireEye WMI 2015),(Citation: Microsoft Azure security baseline for Azure Active Directory)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: win_xml_evt_log),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation),(Citation: Microsoft ETW May 2018),(Citation: cisco_deploy_rsa_keys)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
-  </si>
-  <si>
-    <t>(Citation: NetSPI ClickOnce),(Citation: Microsoft Azure AD Admin Consent),(Citation: mac security virus popup),(Citation: site notifications - krebsonsecurity),(Citation: Defending Against Malicious Cyber Activity Originating from Tor),(Citation: push notifications -infosecinstitute)</t>
-  </si>
-  <si>
-    <t>(Citation: Token tactics),(Citation: Palo Alto Office Test Sofacy),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Session Management Cheat Sheet),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Azure Subscription Policies),(Citation: Microsoft 365 External Sharing),(Citation: Microsoft Anti Spoofing),(Citation: DNS-msft),(Citation: Cisco Securing SNMP),(Citation: Chromium HSTS),(Citation: Google Workspace External Sharing),(Citation: Wikipedia HPKP),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: ACSC Email Spoofing)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: Browser-updates),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page),(Citation: MS14-025)</t>
+    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018),(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017),(Citation: cisco_deploy_rsa_keys),(Citation: win_xml_evt_log)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
+  </si>
+  <si>
+    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
+  </si>
+  <si>
+    <t>(Citation: Defending Against Malicious Cyber Activity Originating from Tor),(Citation: push notifications -infosecinstitute),(Citation: Microsoft Azure AD Admin Consent),(Citation: mac security virus popup),(Citation: site notifications - krebsonsecurity),(Citation: NetSPI ClickOnce)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: AWS RE:Inforce Threat Detection 2024),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Token tactics),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Google Workspace External Sharing),(Citation: ACSC Email Spoofing),(Citation: Microsoft 365 External Sharing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Session Management Cheat Sheet),(Citation: Palo Alto Office Test Sofacy),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Anti Spoofing),(Citation: Cisco Securing SNMP),(Citation: DNS-msft),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Azure Subscription Policies)</t>
+  </si>
+  <si>
+    <t>(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page),(Citation: Browser-updates),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: MDMProfileConfigMacOS),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant M-Trends 2020),(Citation: Symantec BITS May 2007),(Citation: Apple TN2459 Kernel Extensions),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Broadcom Virtual Machine Guest Operations Privileges),(Citation: UCF STIG Symbolic Links),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft ETW May 2018),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Office 365 Partner Relationships),(Citation: Wald0 Guide to GPOs),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft WMI Filters),(Citation: Expel IO Evil in AWS),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes RBAC)</t>
-  </si>
-  <si>
-    <t>(Citation: SWAT-hospital),(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus)</t>
+    <t>(Citation: MDMProfileConfigMacOS),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft ETW May 2018),(Citation: Microsoft GPO Security Filtering),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft WMI Filters),(Citation: Expel IO Evil in AWS),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Kubernetes RBAC),(Citation: Symantec BITS May 2007),(Citation: Amazon S3 Security, 2019),(Citation: Apple TN2459 Kernel Extensions),(Citation: Mandiant M-Trends 2020),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Broadcom Virtual Machine Guest Operations Privileges),(Citation: Office 365 Partner Relationships),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing),(Citation: Cyber Safety Review Board: Lapsus),(Citation: SWAT-hospital)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>
@@ -18125,16 +18125,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -18157,7 +18149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -18165,35 +18157,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18496,34 +18470,34 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18540,7 +18514,7 @@
       <c r="D2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F2" t="s">
@@ -18572,7 +18546,7 @@
       <c r="D3" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F3" t="s">
@@ -18604,7 +18578,7 @@
       <c r="D4" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F4" t="s">
@@ -18636,7 +18610,7 @@
       <c r="D5" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F5" t="s">
@@ -18668,7 +18642,7 @@
       <c r="D6" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F6" t="s">
@@ -18700,7 +18674,7 @@
       <c r="D7" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F7" t="s">
@@ -18732,7 +18706,7 @@
       <c r="D8" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F8" t="s">
@@ -18764,7 +18738,7 @@
       <c r="D9" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F9" t="s">
@@ -18796,7 +18770,7 @@
       <c r="D10" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F10" t="s">
@@ -18828,7 +18802,7 @@
       <c r="D11" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F11" t="s">
@@ -18860,7 +18834,7 @@
       <c r="D12" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F12" t="s">
@@ -18892,7 +18866,7 @@
       <c r="D13" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F13" t="s">
@@ -18924,7 +18898,7 @@
       <c r="D14" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F14" t="s">
@@ -18956,7 +18930,7 @@
       <c r="D15" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F15" t="s">
@@ -18985,7 +18959,7 @@
       <c r="D16" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F16" t="s">
@@ -19017,7 +18991,7 @@
       <c r="D17" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F17" t="s">
@@ -19049,7 +19023,7 @@
       <c r="D18" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F18" t="s">
@@ -19081,7 +19055,7 @@
       <c r="D19" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F19" t="s">
@@ -19113,7 +19087,7 @@
       <c r="D20" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F20" t="s">
@@ -19145,7 +19119,7 @@
       <c r="D21" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F21" t="s">
@@ -19177,7 +19151,7 @@
       <c r="D22" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F22" t="s">
@@ -19206,7 +19180,7 @@
       <c r="D23" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F23" t="s">
@@ -19238,7 +19212,7 @@
       <c r="D24" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F24" t="s">
@@ -19270,7 +19244,7 @@
       <c r="D25" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F25" t="s">
@@ -19302,7 +19276,7 @@
       <c r="D26" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F26" t="s">
@@ -19334,7 +19308,7 @@
       <c r="D27" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F27" t="s">
@@ -19366,7 +19340,7 @@
       <c r="D28" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F28" t="s">
@@ -19398,7 +19372,7 @@
       <c r="D29" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F29" t="s">
@@ -19430,7 +19404,7 @@
       <c r="D30" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F30" t="s">
@@ -19459,7 +19433,7 @@
       <c r="D31" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F31" t="s">
@@ -19491,7 +19465,7 @@
       <c r="D32" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F32" t="s">
@@ -19523,7 +19497,7 @@
       <c r="D33" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F33" t="s">
@@ -19555,7 +19529,7 @@
       <c r="D34" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F34" t="s">
@@ -19587,7 +19561,7 @@
       <c r="D35" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F35" t="s">
@@ -19619,7 +19593,7 @@
       <c r="D36" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F36" t="s">
@@ -19651,7 +19625,7 @@
       <c r="D37" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F37" t="s">
@@ -19683,7 +19657,7 @@
       <c r="D38" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F38" t="s">
@@ -19712,7 +19686,7 @@
       <c r="D39" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F39" t="s">
@@ -19744,7 +19718,7 @@
       <c r="D40" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F40" t="s">
@@ -19773,7 +19747,7 @@
       <c r="D41" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F41" t="s">
@@ -19805,7 +19779,7 @@
       <c r="D42" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F42" t="s">
@@ -19837,7 +19811,7 @@
       <c r="D43" t="s">
         <v>183</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F43" t="s">
@@ -19869,7 +19843,7 @@
       <c r="D44" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F44" t="s">
@@ -19901,7 +19875,7 @@
       <c r="D45" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F45" t="s">
@@ -19980,43 +19954,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -79279,13 +79253,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>4769</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4770</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -79296,7 +79270,7 @@
       <c r="B2" t="s">
         <v>5086</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5400</v>
       </c>
     </row>
@@ -79307,7 +79281,7 @@
       <c r="B3" t="s">
         <v>5087</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5401</v>
       </c>
     </row>
@@ -79318,7 +79292,7 @@
       <c r="B4" t="s">
         <v>5088</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5402</v>
       </c>
     </row>
@@ -79329,7 +79303,7 @@
       <c r="B5" t="s">
         <v>5089</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5403</v>
       </c>
     </row>
@@ -79340,7 +79314,7 @@
       <c r="B6" t="s">
         <v>5090</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5404</v>
       </c>
     </row>
@@ -79351,7 +79325,7 @@
       <c r="B7" t="s">
         <v>5091</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5405</v>
       </c>
     </row>
@@ -79362,7 +79336,7 @@
       <c r="B8" t="s">
         <v>5092</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5406</v>
       </c>
     </row>
@@ -79373,7 +79347,7 @@
       <c r="B9" t="s">
         <v>5093</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5407</v>
       </c>
     </row>
@@ -79384,7 +79358,7 @@
       <c r="B10" t="s">
         <v>5094</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5408</v>
       </c>
     </row>
@@ -79395,7 +79369,7 @@
       <c r="B11" t="s">
         <v>5095</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>5409</v>
       </c>
     </row>
@@ -79406,7 +79380,7 @@
       <c r="B12" t="s">
         <v>5096</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>5410</v>
       </c>
     </row>
@@ -79417,7 +79391,7 @@
       <c r="B13" t="s">
         <v>5097</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>5411</v>
       </c>
     </row>
@@ -79428,7 +79402,7 @@
       <c r="B14" t="s">
         <v>5098</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>5404</v>
       </c>
     </row>
@@ -79439,7 +79413,7 @@
       <c r="B15" t="s">
         <v>5099</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>5412</v>
       </c>
     </row>
@@ -79450,7 +79424,7 @@
       <c r="B16" t="s">
         <v>5100</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>5413</v>
       </c>
     </row>
@@ -79461,7 +79435,7 @@
       <c r="B17" t="s">
         <v>5101</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>5414</v>
       </c>
     </row>
@@ -79472,7 +79446,7 @@
       <c r="B18" t="s">
         <v>5102</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>5415</v>
       </c>
     </row>
@@ -79483,7 +79457,7 @@
       <c r="B19" t="s">
         <v>5103</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>5416</v>
       </c>
     </row>
@@ -79494,7 +79468,7 @@
       <c r="B20" t="s">
         <v>5104</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>5417</v>
       </c>
     </row>
@@ -79505,7 +79479,7 @@
       <c r="B21" t="s">
         <v>5105</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>5418</v>
       </c>
     </row>
@@ -79516,7 +79490,7 @@
       <c r="B22" t="s">
         <v>5106</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>5419</v>
       </c>
     </row>
@@ -79527,7 +79501,7 @@
       <c r="B23" t="s">
         <v>5107</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>5420</v>
       </c>
     </row>
@@ -79538,7 +79512,7 @@
       <c r="B24" t="s">
         <v>5108</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>5421</v>
       </c>
     </row>
@@ -79549,7 +79523,7 @@
       <c r="B25" t="s">
         <v>5109</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>5422</v>
       </c>
     </row>
@@ -79560,7 +79534,7 @@
       <c r="B26" t="s">
         <v>5110</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>5423</v>
       </c>
     </row>
@@ -79571,7 +79545,7 @@
       <c r="B27" t="s">
         <v>5111</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>5424</v>
       </c>
     </row>
@@ -79582,7 +79556,7 @@
       <c r="B28" t="s">
         <v>5112</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>5425</v>
       </c>
     </row>
@@ -79593,7 +79567,7 @@
       <c r="B29" t="s">
         <v>5113</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>5426</v>
       </c>
     </row>
@@ -79604,7 +79578,7 @@
       <c r="B30" t="s">
         <v>5114</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>5427</v>
       </c>
     </row>
@@ -79615,7 +79589,7 @@
       <c r="B31" t="s">
         <v>5115</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>5428</v>
       </c>
     </row>
@@ -79626,7 +79600,7 @@
       <c r="B32" t="s">
         <v>5116</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>5429</v>
       </c>
     </row>
@@ -79637,7 +79611,7 @@
       <c r="B33" t="s">
         <v>5117</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>5430</v>
       </c>
     </row>
@@ -79648,7 +79622,7 @@
       <c r="B34" t="s">
         <v>5118</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>5431</v>
       </c>
     </row>
@@ -79659,7 +79633,7 @@
       <c r="B35" t="s">
         <v>5119</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>5432</v>
       </c>
     </row>
@@ -79670,7 +79644,7 @@
       <c r="B36" t="s">
         <v>5120</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>5433</v>
       </c>
     </row>
@@ -79681,7 +79655,7 @@
       <c r="B37" t="s">
         <v>5121</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>5434</v>
       </c>
     </row>
@@ -79692,7 +79666,7 @@
       <c r="B38" t="s">
         <v>5122</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>5435</v>
       </c>
     </row>
@@ -79703,7 +79677,7 @@
       <c r="B39" t="s">
         <v>5123</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>5436</v>
       </c>
     </row>
@@ -79714,7 +79688,7 @@
       <c r="B40" t="s">
         <v>5124</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>5437</v>
       </c>
     </row>
@@ -79725,7 +79699,7 @@
       <c r="B41" t="s">
         <v>5125</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>5438</v>
       </c>
     </row>
@@ -79736,7 +79710,7 @@
       <c r="B42" t="s">
         <v>5126</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>5439</v>
       </c>
     </row>
@@ -79747,7 +79721,7 @@
       <c r="B43" t="s">
         <v>5127</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>5440</v>
       </c>
     </row>
@@ -79758,7 +79732,7 @@
       <c r="B44" t="s">
         <v>5128</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>5441</v>
       </c>
     </row>
@@ -79769,7 +79743,7 @@
       <c r="B45" t="s">
         <v>5129</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>5442</v>
       </c>
     </row>
@@ -79780,7 +79754,7 @@
       <c r="B46" t="s">
         <v>5130</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>5443</v>
       </c>
     </row>
@@ -79791,7 +79765,7 @@
       <c r="B47" t="s">
         <v>5131</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>5444</v>
       </c>
     </row>
@@ -79802,7 +79776,7 @@
       <c r="B48" t="s">
         <v>5132</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>5445</v>
       </c>
     </row>
@@ -79813,7 +79787,7 @@
       <c r="B49" t="s">
         <v>5133</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>5446</v>
       </c>
     </row>
@@ -79824,7 +79798,7 @@
       <c r="B50" t="s">
         <v>5134</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>5447</v>
       </c>
     </row>
@@ -79835,7 +79809,7 @@
       <c r="B51" t="s">
         <v>5135</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>5448</v>
       </c>
     </row>
@@ -79846,7 +79820,7 @@
       <c r="B52" t="s">
         <v>5136</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -79857,7 +79831,7 @@
       <c r="B53" t="s">
         <v>5137</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>5450</v>
       </c>
     </row>
@@ -79868,7 +79842,7 @@
       <c r="B54" t="s">
         <v>5138</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>5451</v>
       </c>
     </row>
@@ -79879,7 +79853,7 @@
       <c r="B55" t="s">
         <v>5139</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>5452</v>
       </c>
     </row>
@@ -79890,7 +79864,7 @@
       <c r="B56" t="s">
         <v>5140</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>5453</v>
       </c>
     </row>
@@ -79901,7 +79875,7 @@
       <c r="B57" t="s">
         <v>5141</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>5454</v>
       </c>
     </row>
@@ -79912,7 +79886,7 @@
       <c r="B58" t="s">
         <v>5142</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>5455</v>
       </c>
     </row>
@@ -79923,7 +79897,7 @@
       <c r="B59" t="s">
         <v>5143</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>5456</v>
       </c>
     </row>
@@ -79934,7 +79908,7 @@
       <c r="B60" t="s">
         <v>5144</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>5457</v>
       </c>
     </row>
@@ -79945,7 +79919,7 @@
       <c r="B61" t="s">
         <v>5145</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>5458</v>
       </c>
     </row>
@@ -79956,7 +79930,7 @@
       <c r="B62" t="s">
         <v>5146</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>5459</v>
       </c>
     </row>
@@ -79967,7 +79941,7 @@
       <c r="B63" t="s">
         <v>5147</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>5460</v>
       </c>
     </row>
@@ -79978,7 +79952,7 @@
       <c r="B64" t="s">
         <v>5148</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>5461</v>
       </c>
     </row>
@@ -79989,7 +79963,7 @@
       <c r="B65" t="s">
         <v>5149</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>5462</v>
       </c>
     </row>
@@ -80000,7 +79974,7 @@
       <c r="B66" t="s">
         <v>5150</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>5463</v>
       </c>
     </row>
@@ -80011,7 +79985,7 @@
       <c r="B67" t="s">
         <v>5151</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>5464</v>
       </c>
     </row>
@@ -80022,7 +79996,7 @@
       <c r="B68" t="s">
         <v>5152</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>5465</v>
       </c>
     </row>
@@ -80033,7 +80007,7 @@
       <c r="B69" t="s">
         <v>5153</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>5466</v>
       </c>
     </row>
@@ -80044,7 +80018,7 @@
       <c r="B70" t="s">
         <v>5154</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -80055,7 +80029,7 @@
       <c r="B71" t="s">
         <v>5155</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>5468</v>
       </c>
     </row>
@@ -80066,7 +80040,7 @@
       <c r="B72" t="s">
         <v>5156</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>5469</v>
       </c>
     </row>
@@ -80077,7 +80051,7 @@
       <c r="B73" t="s">
         <v>5157</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>5470</v>
       </c>
     </row>
@@ -80088,7 +80062,7 @@
       <c r="B74" t="s">
         <v>5158</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>5471</v>
       </c>
     </row>
@@ -80099,7 +80073,7 @@
       <c r="B75" t="s">
         <v>5159</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>5472</v>
       </c>
     </row>
@@ -80110,7 +80084,7 @@
       <c r="B76" t="s">
         <v>5160</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>5473</v>
       </c>
     </row>
@@ -80121,7 +80095,7 @@
       <c r="B77" t="s">
         <v>5161</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>5474</v>
       </c>
     </row>
@@ -80132,7 +80106,7 @@
       <c r="B78" t="s">
         <v>5162</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>5475</v>
       </c>
     </row>
@@ -80143,7 +80117,7 @@
       <c r="B79" t="s">
         <v>5163</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>5476</v>
       </c>
     </row>
@@ -80154,7 +80128,7 @@
       <c r="B80" t="s">
         <v>5164</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>5477</v>
       </c>
     </row>
@@ -80165,7 +80139,7 @@
       <c r="B81" t="s">
         <v>5165</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>5478</v>
       </c>
     </row>
@@ -80176,7 +80150,7 @@
       <c r="B82" t="s">
         <v>5166</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>5479</v>
       </c>
     </row>
@@ -80187,7 +80161,7 @@
       <c r="B83" t="s">
         <v>5167</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>5480</v>
       </c>
     </row>
@@ -80198,7 +80172,7 @@
       <c r="B84" t="s">
         <v>5168</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>5481</v>
       </c>
     </row>
@@ -80209,7 +80183,7 @@
       <c r="B85" t="s">
         <v>5169</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>5482</v>
       </c>
     </row>
@@ -80220,7 +80194,7 @@
       <c r="B86" t="s">
         <v>5170</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>5483</v>
       </c>
     </row>
@@ -80231,7 +80205,7 @@
       <c r="B87" t="s">
         <v>5171</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>5484</v>
       </c>
     </row>
@@ -80242,7 +80216,7 @@
       <c r="B88" t="s">
         <v>5172</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>5485</v>
       </c>
     </row>
@@ -80253,7 +80227,7 @@
       <c r="B89" t="s">
         <v>5173</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>5486</v>
       </c>
     </row>
@@ -80264,7 +80238,7 @@
       <c r="B90" t="s">
         <v>5174</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>5487</v>
       </c>
     </row>
@@ -80275,7 +80249,7 @@
       <c r="B91" t="s">
         <v>5175</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>5488</v>
       </c>
     </row>
@@ -80286,7 +80260,7 @@
       <c r="B92" t="s">
         <v>5176</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>5489</v>
       </c>
     </row>
@@ -80297,7 +80271,7 @@
       <c r="B93" t="s">
         <v>5177</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>5490</v>
       </c>
     </row>
@@ -80308,7 +80282,7 @@
       <c r="B94" t="s">
         <v>5178</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>5491</v>
       </c>
     </row>
@@ -80319,7 +80293,7 @@
       <c r="B95" t="s">
         <v>5179</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>5492</v>
       </c>
     </row>
@@ -80330,7 +80304,7 @@
       <c r="B96" t="s">
         <v>5180</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>5493</v>
       </c>
     </row>
@@ -80341,7 +80315,7 @@
       <c r="B97" t="s">
         <v>5181</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>5494</v>
       </c>
     </row>
@@ -80352,7 +80326,7 @@
       <c r="B98" t="s">
         <v>5182</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>5495</v>
       </c>
     </row>
@@ -80363,7 +80337,7 @@
       <c r="B99" t="s">
         <v>5183</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>5496</v>
       </c>
     </row>
@@ -80374,7 +80348,7 @@
       <c r="B100" t="s">
         <v>5184</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>5497</v>
       </c>
     </row>
@@ -80385,7 +80359,7 @@
       <c r="B101" t="s">
         <v>5185</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>5498</v>
       </c>
     </row>
@@ -80396,7 +80370,7 @@
       <c r="B102" t="s">
         <v>5186</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>5499</v>
       </c>
     </row>
@@ -80407,7 +80381,7 @@
       <c r="B103" t="s">
         <v>5187</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>5500</v>
       </c>
     </row>
@@ -80418,7 +80392,7 @@
       <c r="B104" t="s">
         <v>5188</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>5501</v>
       </c>
     </row>
@@ -80429,7 +80403,7 @@
       <c r="B105" t="s">
         <v>5189</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>5502</v>
       </c>
     </row>
@@ -80440,7 +80414,7 @@
       <c r="B106" t="s">
         <v>5190</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>5503</v>
       </c>
     </row>
@@ -80451,7 +80425,7 @@
       <c r="B107" t="s">
         <v>5191</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>5504</v>
       </c>
     </row>
@@ -80462,7 +80436,7 @@
       <c r="B108" t="s">
         <v>5192</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>5505</v>
       </c>
     </row>
@@ -80473,7 +80447,7 @@
       <c r="B109" t="s">
         <v>5193</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>5506</v>
       </c>
     </row>
@@ -80484,7 +80458,7 @@
       <c r="B110" t="s">
         <v>5194</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>5507</v>
       </c>
     </row>
@@ -80495,7 +80469,7 @@
       <c r="B111" t="s">
         <v>5195</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>5508</v>
       </c>
     </row>
@@ -80506,7 +80480,7 @@
       <c r="B112" t="s">
         <v>5196</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>5509</v>
       </c>
     </row>
@@ -80517,7 +80491,7 @@
       <c r="B113" t="s">
         <v>5197</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>5510</v>
       </c>
     </row>
@@ -80528,7 +80502,7 @@
       <c r="B114" t="s">
         <v>5198</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>5511</v>
       </c>
     </row>
@@ -80539,7 +80513,7 @@
       <c r="B115" t="s">
         <v>5199</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>5512</v>
       </c>
     </row>
@@ -80550,7 +80524,7 @@
       <c r="B116" t="s">
         <v>5200</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>5513</v>
       </c>
     </row>
@@ -80561,7 +80535,7 @@
       <c r="B117" t="s">
         <v>5201</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>5514</v>
       </c>
     </row>
@@ -80572,7 +80546,7 @@
       <c r="B118" t="s">
         <v>5202</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>5515</v>
       </c>
     </row>
@@ -80583,7 +80557,7 @@
       <c r="B119" t="s">
         <v>5203</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>5516</v>
       </c>
     </row>
@@ -80594,7 +80568,7 @@
       <c r="B120" t="s">
         <v>5204</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>5517</v>
       </c>
     </row>
@@ -80605,7 +80579,7 @@
       <c r="B121" t="s">
         <v>5205</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>5518</v>
       </c>
     </row>
@@ -80616,7 +80590,7 @@
       <c r="B122" t="s">
         <v>5206</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>5519</v>
       </c>
     </row>
@@ -80627,7 +80601,7 @@
       <c r="B123" t="s">
         <v>5207</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>5520</v>
       </c>
     </row>
@@ -80638,7 +80612,7 @@
       <c r="B124" t="s">
         <v>5208</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>5521</v>
       </c>
     </row>
@@ -80649,7 +80623,7 @@
       <c r="B125" t="s">
         <v>5209</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>5522</v>
       </c>
     </row>
@@ -80660,7 +80634,7 @@
       <c r="B126" t="s">
         <v>5210</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>5523</v>
       </c>
     </row>
@@ -80671,7 +80645,7 @@
       <c r="B127" t="s">
         <v>5211</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>5524</v>
       </c>
     </row>
@@ -80682,7 +80656,7 @@
       <c r="B128" t="s">
         <v>5212</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>5525</v>
       </c>
     </row>
@@ -80693,7 +80667,7 @@
       <c r="B129" t="s">
         <v>5213</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>5526</v>
       </c>
     </row>
@@ -80704,7 +80678,7 @@
       <c r="B130" t="s">
         <v>5214</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>5527</v>
       </c>
     </row>
@@ -80715,7 +80689,7 @@
       <c r="B131" t="s">
         <v>5215</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>5528</v>
       </c>
     </row>
@@ -80726,7 +80700,7 @@
       <c r="B132" t="s">
         <v>5216</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>5529</v>
       </c>
     </row>
@@ -80737,7 +80711,7 @@
       <c r="B133" t="s">
         <v>5217</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>5530</v>
       </c>
     </row>
@@ -80748,7 +80722,7 @@
       <c r="B134" t="s">
         <v>5218</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>5531</v>
       </c>
     </row>
@@ -80759,7 +80733,7 @@
       <c r="B135" t="s">
         <v>5219</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>5532</v>
       </c>
     </row>
@@ -80770,7 +80744,7 @@
       <c r="B136" t="s">
         <v>5220</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>5533</v>
       </c>
     </row>
@@ -80781,7 +80755,7 @@
       <c r="B137" t="s">
         <v>5221</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>5534</v>
       </c>
     </row>
@@ -80792,7 +80766,7 @@
       <c r="B138" t="s">
         <v>5222</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>5535</v>
       </c>
     </row>
@@ -80803,7 +80777,7 @@
       <c r="B139" t="s">
         <v>5223</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>5536</v>
       </c>
     </row>
@@ -80814,7 +80788,7 @@
       <c r="B140" t="s">
         <v>5224</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>5537</v>
       </c>
     </row>
@@ -80825,7 +80799,7 @@
       <c r="B141" t="s">
         <v>5225</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>5538</v>
       </c>
     </row>
@@ -80836,7 +80810,7 @@
       <c r="B142" t="s">
         <v>5226</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>5539</v>
       </c>
     </row>
@@ -80847,7 +80821,7 @@
       <c r="B143" t="s">
         <v>5227</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>5540</v>
       </c>
     </row>
@@ -80858,7 +80832,7 @@
       <c r="B144" t="s">
         <v>5228</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>5541</v>
       </c>
     </row>
@@ -80869,7 +80843,7 @@
       <c r="B145" t="s">
         <v>5229</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>5542</v>
       </c>
     </row>
@@ -80880,7 +80854,7 @@
       <c r="B146" t="s">
         <v>5230</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>5543</v>
       </c>
     </row>
@@ -80891,7 +80865,7 @@
       <c r="B147" t="s">
         <v>5231</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>5544</v>
       </c>
     </row>
@@ -80902,7 +80876,7 @@
       <c r="B148" t="s">
         <v>5232</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>5545</v>
       </c>
     </row>
@@ -80913,7 +80887,7 @@
       <c r="B149" t="s">
         <v>5233</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>5546</v>
       </c>
     </row>
@@ -80924,7 +80898,7 @@
       <c r="B150" t="s">
         <v>5234</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>5547</v>
       </c>
     </row>
@@ -80935,7 +80909,7 @@
       <c r="B151" t="s">
         <v>5235</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>5548</v>
       </c>
     </row>
@@ -80946,7 +80920,7 @@
       <c r="B152" t="s">
         <v>5236</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>5549</v>
       </c>
     </row>
@@ -80957,7 +80931,7 @@
       <c r="B153" t="s">
         <v>5237</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>5550</v>
       </c>
     </row>
@@ -80968,7 +80942,7 @@
       <c r="B154" t="s">
         <v>5238</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>5551</v>
       </c>
     </row>
@@ -80979,7 +80953,7 @@
       <c r="B155" t="s">
         <v>5239</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>5552</v>
       </c>
     </row>
@@ -80990,7 +80964,7 @@
       <c r="B156" t="s">
         <v>5240</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>5553</v>
       </c>
     </row>
@@ -81001,7 +80975,7 @@
       <c r="B157" t="s">
         <v>5241</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>5554</v>
       </c>
     </row>
@@ -81012,7 +80986,7 @@
       <c r="B158" t="s">
         <v>5242</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>5555</v>
       </c>
     </row>
@@ -81023,7 +80997,7 @@
       <c r="B159" t="s">
         <v>5243</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>5556</v>
       </c>
     </row>
@@ -81034,7 +81008,7 @@
       <c r="B160" t="s">
         <v>5244</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>5557</v>
       </c>
     </row>
@@ -81045,7 +81019,7 @@
       <c r="B161" t="s">
         <v>5245</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>5558</v>
       </c>
     </row>
@@ -81056,7 +81030,7 @@
       <c r="B162" t="s">
         <v>5246</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>5559</v>
       </c>
     </row>
@@ -81067,7 +81041,7 @@
       <c r="B163" t="s">
         <v>5247</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>5560</v>
       </c>
     </row>
@@ -81078,7 +81052,7 @@
       <c r="B164" t="s">
         <v>5248</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>5561</v>
       </c>
     </row>
@@ -81089,7 +81063,7 @@
       <c r="B165" t="s">
         <v>5249</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>5562</v>
       </c>
     </row>
@@ -81100,7 +81074,7 @@
       <c r="B166" t="s">
         <v>5250</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>5563</v>
       </c>
     </row>
@@ -81111,7 +81085,7 @@
       <c r="B167" t="s">
         <v>5251</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>5564</v>
       </c>
     </row>
@@ -81122,7 +81096,7 @@
       <c r="B168" t="s">
         <v>5252</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>5565</v>
       </c>
     </row>
@@ -81133,7 +81107,7 @@
       <c r="B169" t="s">
         <v>5253</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>5566</v>
       </c>
     </row>
@@ -81144,7 +81118,7 @@
       <c r="B170" t="s">
         <v>5254</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>5567</v>
       </c>
     </row>
@@ -81155,7 +81129,7 @@
       <c r="B171" t="s">
         <v>5255</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>5568</v>
       </c>
     </row>
@@ -81166,7 +81140,7 @@
       <c r="B172" t="s">
         <v>5256</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>5569</v>
       </c>
     </row>
@@ -81177,7 +81151,7 @@
       <c r="B173" t="s">
         <v>5257</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>5570</v>
       </c>
     </row>
@@ -81188,7 +81162,7 @@
       <c r="B174" t="s">
         <v>5258</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>5545</v>
       </c>
     </row>
@@ -81199,7 +81173,7 @@
       <c r="B175" t="s">
         <v>5259</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>5571</v>
       </c>
     </row>
@@ -81210,7 +81184,7 @@
       <c r="B176" t="s">
         <v>5260</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>5572</v>
       </c>
     </row>
@@ -81221,7 +81195,7 @@
       <c r="B177" t="s">
         <v>5261</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>5573</v>
       </c>
     </row>
@@ -81232,7 +81206,7 @@
       <c r="B178" t="s">
         <v>5262</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>5574</v>
       </c>
     </row>
@@ -81243,7 +81217,7 @@
       <c r="B179" t="s">
         <v>5263</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>5575</v>
       </c>
     </row>
@@ -81254,7 +81228,7 @@
       <c r="B180" t="s">
         <v>5264</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>5576</v>
       </c>
     </row>
@@ -81265,7 +81239,7 @@
       <c r="B181" t="s">
         <v>5265</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>5577</v>
       </c>
     </row>
@@ -81276,7 +81250,7 @@
       <c r="B182" t="s">
         <v>5266</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>5578</v>
       </c>
     </row>
@@ -81287,7 +81261,7 @@
       <c r="B183" t="s">
         <v>5267</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>5579</v>
       </c>
     </row>
@@ -81298,7 +81272,7 @@
       <c r="B184" t="s">
         <v>5268</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>5580</v>
       </c>
     </row>
@@ -81309,7 +81283,7 @@
       <c r="B185" t="s">
         <v>5269</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>5581</v>
       </c>
     </row>
@@ -81320,7 +81294,7 @@
       <c r="B186" t="s">
         <v>5270</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>5582</v>
       </c>
     </row>
@@ -81331,7 +81305,7 @@
       <c r="B187" t="s">
         <v>5271</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>5583</v>
       </c>
     </row>
@@ -81342,7 +81316,7 @@
       <c r="B188" t="s">
         <v>5272</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>5584</v>
       </c>
     </row>
@@ -81353,7 +81327,7 @@
       <c r="B189" t="s">
         <v>5273</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>5585</v>
       </c>
     </row>
@@ -81364,7 +81338,7 @@
       <c r="B190" t="s">
         <v>5274</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>5586</v>
       </c>
     </row>
@@ -81375,7 +81349,7 @@
       <c r="B191" t="s">
         <v>5275</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>5587</v>
       </c>
     </row>
@@ -81386,7 +81360,7 @@
       <c r="B192" t="s">
         <v>5276</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>5588</v>
       </c>
     </row>
@@ -81397,7 +81371,7 @@
       <c r="B193" t="s">
         <v>5277</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>5589</v>
       </c>
     </row>
@@ -81408,7 +81382,7 @@
       <c r="B194" t="s">
         <v>5278</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>5590</v>
       </c>
     </row>
@@ -81419,7 +81393,7 @@
       <c r="B195" t="s">
         <v>5279</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>5591</v>
       </c>
     </row>
@@ -81430,7 +81404,7 @@
       <c r="B196" t="s">
         <v>5280</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>5592</v>
       </c>
     </row>
@@ -81441,7 +81415,7 @@
       <c r="B197" t="s">
         <v>5281</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>5593</v>
       </c>
     </row>
@@ -81452,7 +81426,7 @@
       <c r="B198" t="s">
         <v>5282</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>5594</v>
       </c>
     </row>
@@ -81463,7 +81437,7 @@
       <c r="B199" t="s">
         <v>5283</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>5595</v>
       </c>
     </row>
@@ -81474,7 +81448,7 @@
       <c r="B200" t="s">
         <v>5284</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="1" t="s">
         <v>5540</v>
       </c>
     </row>
@@ -81485,7 +81459,7 @@
       <c r="B201" t="s">
         <v>5285</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>5596</v>
       </c>
     </row>
@@ -81496,7 +81470,7 @@
       <c r="B202" t="s">
         <v>5286</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>5597</v>
       </c>
     </row>
@@ -81507,7 +81481,7 @@
       <c r="B203" t="s">
         <v>5287</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>5598</v>
       </c>
     </row>
@@ -81518,7 +81492,7 @@
       <c r="B204" t="s">
         <v>5288</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>5599</v>
       </c>
     </row>
@@ -81529,7 +81503,7 @@
       <c r="B205" t="s">
         <v>5289</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>5600</v>
       </c>
     </row>
@@ -81540,7 +81514,7 @@
       <c r="B206" t="s">
         <v>5290</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="1" t="s">
         <v>5601</v>
       </c>
     </row>
@@ -81551,7 +81525,7 @@
       <c r="B207" t="s">
         <v>5291</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="1" t="s">
         <v>5602</v>
       </c>
     </row>
@@ -81562,7 +81536,7 @@
       <c r="B208" t="s">
         <v>5292</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="1" t="s">
         <v>5603</v>
       </c>
     </row>
@@ -81573,7 +81547,7 @@
       <c r="B209" t="s">
         <v>5293</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="1" t="s">
         <v>5604</v>
       </c>
     </row>
@@ -81584,7 +81558,7 @@
       <c r="B210" t="s">
         <v>5294</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="1" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -81595,7 +81569,7 @@
       <c r="B211" t="s">
         <v>5295</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="1" t="s">
         <v>5606</v>
       </c>
     </row>
@@ -81606,7 +81580,7 @@
       <c r="B212" t="s">
         <v>5296</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="1" t="s">
         <v>5607</v>
       </c>
     </row>
@@ -81617,7 +81591,7 @@
       <c r="B213" t="s">
         <v>5297</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="1" t="s">
         <v>5608</v>
       </c>
     </row>
@@ -81628,7 +81602,7 @@
       <c r="B214" t="s">
         <v>5298</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="1" t="s">
         <v>5609</v>
       </c>
     </row>
@@ -81639,7 +81613,7 @@
       <c r="B215" t="s">
         <v>5299</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="1" t="s">
         <v>5559</v>
       </c>
     </row>
@@ -81650,7 +81624,7 @@
       <c r="B216" t="s">
         <v>5300</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="1" t="s">
         <v>5610</v>
       </c>
     </row>
@@ -81661,7 +81635,7 @@
       <c r="B217" t="s">
         <v>5301</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="1" t="s">
         <v>5611</v>
       </c>
     </row>
@@ -81672,7 +81646,7 @@
       <c r="B218" t="s">
         <v>5302</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="1" t="s">
         <v>5612</v>
       </c>
     </row>
@@ -81683,7 +81657,7 @@
       <c r="B219" t="s">
         <v>5303</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="1" t="s">
         <v>5613</v>
       </c>
     </row>
@@ -81694,7 +81668,7 @@
       <c r="B220" t="s">
         <v>5304</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>5614</v>
       </c>
     </row>
@@ -81705,7 +81679,7 @@
       <c r="B221" t="s">
         <v>5305</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>5615</v>
       </c>
     </row>
@@ -81716,7 +81690,7 @@
       <c r="B222" t="s">
         <v>5306</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="1" t="s">
         <v>5616</v>
       </c>
     </row>
@@ -81727,7 +81701,7 @@
       <c r="B223" t="s">
         <v>5307</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="1" t="s">
         <v>5617</v>
       </c>
     </row>
@@ -81738,7 +81712,7 @@
       <c r="B224" t="s">
         <v>5308</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="1" t="s">
         <v>5618</v>
       </c>
     </row>
@@ -81749,7 +81723,7 @@
       <c r="B225" t="s">
         <v>5309</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="1" t="s">
         <v>5619</v>
       </c>
     </row>
@@ -81760,7 +81734,7 @@
       <c r="B226" t="s">
         <v>5310</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="1" t="s">
         <v>5620</v>
       </c>
     </row>
@@ -81771,7 +81745,7 @@
       <c r="B227" t="s">
         <v>5311</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="1" t="s">
         <v>5621</v>
       </c>
     </row>
@@ -81782,7 +81756,7 @@
       <c r="B228" t="s">
         <v>5312</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="1" t="s">
         <v>5622</v>
       </c>
     </row>
@@ -81793,7 +81767,7 @@
       <c r="B229" t="s">
         <v>5313</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="1" t="s">
         <v>5623</v>
       </c>
     </row>
@@ -81804,7 +81778,7 @@
       <c r="B230" t="s">
         <v>5314</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="1" t="s">
         <v>5624</v>
       </c>
     </row>
@@ -81815,7 +81789,7 @@
       <c r="B231" t="s">
         <v>5315</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="1" t="s">
         <v>5625</v>
       </c>
     </row>
@@ -81826,7 +81800,7 @@
       <c r="B232" t="s">
         <v>5316</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="1" t="s">
         <v>5626</v>
       </c>
     </row>
@@ -81837,7 +81811,7 @@
       <c r="B233" t="s">
         <v>5317</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="1" t="s">
         <v>5627</v>
       </c>
     </row>
@@ -81848,7 +81822,7 @@
       <c r="B234" t="s">
         <v>5318</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="1" t="s">
         <v>5628</v>
       </c>
     </row>
@@ -81859,7 +81833,7 @@
       <c r="B235" t="s">
         <v>5319</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="1" t="s">
         <v>5629</v>
       </c>
     </row>
@@ -81870,7 +81844,7 @@
       <c r="B236" t="s">
         <v>5320</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="1" t="s">
         <v>5630</v>
       </c>
     </row>
@@ -81881,7 +81855,7 @@
       <c r="B237" t="s">
         <v>5321</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="1" t="s">
         <v>5631</v>
       </c>
     </row>
@@ -81892,7 +81866,7 @@
       <c r="B238" t="s">
         <v>5322</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="1" t="s">
         <v>5632</v>
       </c>
     </row>
@@ -81903,7 +81877,7 @@
       <c r="B239" t="s">
         <v>5323</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="1" t="s">
         <v>5633</v>
       </c>
     </row>
@@ -81914,7 +81888,7 @@
       <c r="B240" t="s">
         <v>5324</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="1" t="s">
         <v>5634</v>
       </c>
     </row>
@@ -81925,7 +81899,7 @@
       <c r="B241" t="s">
         <v>5325</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="1" t="s">
         <v>5635</v>
       </c>
     </row>
@@ -81936,7 +81910,7 @@
       <c r="B242" t="s">
         <v>5326</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="1" t="s">
         <v>5636</v>
       </c>
     </row>
@@ -81947,7 +81921,7 @@
       <c r="B243" t="s">
         <v>5327</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="1" t="s">
         <v>5637</v>
       </c>
     </row>
@@ -81958,7 +81932,7 @@
       <c r="B244" t="s">
         <v>5328</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="1" t="s">
         <v>5638</v>
       </c>
     </row>
@@ -81969,7 +81943,7 @@
       <c r="B245" t="s">
         <v>5329</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="1" t="s">
         <v>5639</v>
       </c>
     </row>
@@ -81980,7 +81954,7 @@
       <c r="B246" t="s">
         <v>5330</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="1" t="s">
         <v>5640</v>
       </c>
     </row>
@@ -81991,7 +81965,7 @@
       <c r="B247" t="s">
         <v>5331</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="1" t="s">
         <v>5641</v>
       </c>
     </row>
@@ -82002,7 +81976,7 @@
       <c r="B248" t="s">
         <v>5332</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="1" t="s">
         <v>5642</v>
       </c>
     </row>
@@ -82013,7 +81987,7 @@
       <c r="B249" t="s">
         <v>5333</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>5643</v>
       </c>
     </row>
@@ -82024,7 +81998,7 @@
       <c r="B250" t="s">
         <v>5334</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>5644</v>
       </c>
     </row>
@@ -82035,7 +82009,7 @@
       <c r="B251" t="s">
         <v>5335</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>5645</v>
       </c>
     </row>
@@ -82046,7 +82020,7 @@
       <c r="B252" t="s">
         <v>5336</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>5646</v>
       </c>
     </row>
@@ -82057,7 +82031,7 @@
       <c r="B253" t="s">
         <v>5337</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="1" t="s">
         <v>5647</v>
       </c>
     </row>
@@ -82068,7 +82042,7 @@
       <c r="B254" t="s">
         <v>5338</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="1" t="s">
         <v>5648</v>
       </c>
     </row>
@@ -82079,7 +82053,7 @@
       <c r="B255" t="s">
         <v>5339</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="1" t="s">
         <v>5649</v>
       </c>
     </row>
@@ -82090,7 +82064,7 @@
       <c r="B256" t="s">
         <v>5340</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="1" t="s">
         <v>5650</v>
       </c>
     </row>
@@ -82101,7 +82075,7 @@
       <c r="B257" t="s">
         <v>5341</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="1" t="s">
         <v>5651</v>
       </c>
     </row>
@@ -82112,7 +82086,7 @@
       <c r="B258" t="s">
         <v>5293</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="1" t="s">
         <v>5652</v>
       </c>
     </row>
@@ -82123,7 +82097,7 @@
       <c r="B259" t="s">
         <v>5342</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="1" t="s">
         <v>5653</v>
       </c>
     </row>
@@ -82134,7 +82108,7 @@
       <c r="B260" t="s">
         <v>5343</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="1" t="s">
         <v>5654</v>
       </c>
     </row>
@@ -82145,7 +82119,7 @@
       <c r="B261" t="s">
         <v>5344</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="1" t="s">
         <v>5655</v>
       </c>
     </row>
@@ -82156,7 +82130,7 @@
       <c r="B262" t="s">
         <v>5345</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="1" t="s">
         <v>5656</v>
       </c>
     </row>
@@ -82167,7 +82141,7 @@
       <c r="B263" t="s">
         <v>5346</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="1" t="s">
         <v>5657</v>
       </c>
     </row>
@@ -82178,7 +82152,7 @@
       <c r="B264" t="s">
         <v>5347</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="1" t="s">
         <v>5658</v>
       </c>
     </row>
@@ -82189,7 +82163,7 @@
       <c r="B265" t="s">
         <v>5348</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="1" t="s">
         <v>5659</v>
       </c>
     </row>
@@ -82200,7 +82174,7 @@
       <c r="B266" t="s">
         <v>5349</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="1" t="s">
         <v>5660</v>
       </c>
     </row>
@@ -82211,7 +82185,7 @@
       <c r="B267" t="s">
         <v>5350</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="1" t="s">
         <v>5661</v>
       </c>
     </row>
@@ -82222,7 +82196,7 @@
       <c r="B268" t="s">
         <v>5351</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="1" t="s">
         <v>5662</v>
       </c>
     </row>
@@ -82233,7 +82207,7 @@
       <c r="B269" t="s">
         <v>5352</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="1" t="s">
         <v>5663</v>
       </c>
     </row>
@@ -82244,7 +82218,7 @@
       <c r="B270" t="s">
         <v>5353</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="1" t="s">
         <v>5664</v>
       </c>
     </row>
@@ -82255,7 +82229,7 @@
       <c r="B271" t="s">
         <v>5354</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="1" t="s">
         <v>5665</v>
       </c>
     </row>
@@ -82266,7 +82240,7 @@
       <c r="B272" t="s">
         <v>5355</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="1" t="s">
         <v>5666</v>
       </c>
     </row>
@@ -82277,7 +82251,7 @@
       <c r="B273" t="s">
         <v>5356</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="1" t="s">
         <v>5667</v>
       </c>
     </row>
@@ -82288,7 +82262,7 @@
       <c r="B274" t="s">
         <v>5357</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="1" t="s">
         <v>5668</v>
       </c>
     </row>
@@ -82299,7 +82273,7 @@
       <c r="B275" t="s">
         <v>5358</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="1" t="s">
         <v>5669</v>
       </c>
     </row>
@@ -82310,7 +82284,7 @@
       <c r="B276" t="s">
         <v>5359</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="1" t="s">
         <v>5670</v>
       </c>
     </row>
@@ -82321,7 +82295,7 @@
       <c r="B277" t="s">
         <v>5360</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="1" t="s">
         <v>5671</v>
       </c>
     </row>
@@ -82332,7 +82306,7 @@
       <c r="B278" t="s">
         <v>5361</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="1" t="s">
         <v>5672</v>
       </c>
     </row>
@@ -82343,7 +82317,7 @@
       <c r="B279" t="s">
         <v>5362</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="1" t="s">
         <v>5673</v>
       </c>
     </row>
@@ -82354,7 +82328,7 @@
       <c r="B280" t="s">
         <v>5363</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="1" t="s">
         <v>5674</v>
       </c>
     </row>
@@ -82365,7 +82339,7 @@
       <c r="B281" t="s">
         <v>5364</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="1" t="s">
         <v>5675</v>
       </c>
     </row>
@@ -82376,7 +82350,7 @@
       <c r="B282" t="s">
         <v>5365</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="1" t="s">
         <v>5676</v>
       </c>
     </row>
@@ -82387,7 +82361,7 @@
       <c r="B283" t="s">
         <v>5366</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="1" t="s">
         <v>5677</v>
       </c>
     </row>
@@ -82398,7 +82372,7 @@
       <c r="B284" t="s">
         <v>5367</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="1" t="s">
         <v>5678</v>
       </c>
     </row>
@@ -82409,7 +82383,7 @@
       <c r="B285" t="s">
         <v>5368</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="1" t="s">
         <v>5679</v>
       </c>
     </row>
@@ -82420,7 +82394,7 @@
       <c r="B286" t="s">
         <v>5369</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="1" t="s">
         <v>5680</v>
       </c>
     </row>
@@ -82431,7 +82405,7 @@
       <c r="B287" t="s">
         <v>5370</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="1" t="s">
         <v>5681</v>
       </c>
     </row>
@@ -82442,7 +82416,7 @@
       <c r="B288" t="s">
         <v>5371</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="1" t="s">
         <v>5682</v>
       </c>
     </row>
@@ -82453,7 +82427,7 @@
       <c r="B289" t="s">
         <v>5372</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="1" t="s">
         <v>5683</v>
       </c>
     </row>
@@ -82464,7 +82438,7 @@
       <c r="B290" t="s">
         <v>5373</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="1" t="s">
         <v>5684</v>
       </c>
     </row>
@@ -82475,7 +82449,7 @@
       <c r="B291" t="s">
         <v>5374</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="1" t="s">
         <v>5685</v>
       </c>
     </row>
@@ -82486,7 +82460,7 @@
       <c r="B292" t="s">
         <v>5375</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="1" t="s">
         <v>5686</v>
       </c>
     </row>
@@ -82497,7 +82471,7 @@
       <c r="B293" t="s">
         <v>5376</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="1" t="s">
         <v>5687</v>
       </c>
     </row>
@@ -82508,7 +82482,7 @@
       <c r="B294" t="s">
         <v>5377</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="1" t="s">
         <v>5688</v>
       </c>
     </row>
@@ -82519,7 +82493,7 @@
       <c r="B295" t="s">
         <v>5378</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="1" t="s">
         <v>5689</v>
       </c>
     </row>
@@ -82530,7 +82504,7 @@
       <c r="B296" t="s">
         <v>5379</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="1" t="s">
         <v>5690</v>
       </c>
     </row>
@@ -82541,7 +82515,7 @@
       <c r="B297" t="s">
         <v>5380</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="1" t="s">
         <v>5691</v>
       </c>
     </row>
@@ -82552,7 +82526,7 @@
       <c r="B298" t="s">
         <v>5381</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="1" t="s">
         <v>5692</v>
       </c>
     </row>
@@ -82563,7 +82537,7 @@
       <c r="B299" t="s">
         <v>5382</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="1" t="s">
         <v>5693</v>
       </c>
     </row>
@@ -82574,7 +82548,7 @@
       <c r="B300" t="s">
         <v>5383</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="1" t="s">
         <v>5694</v>
       </c>
     </row>
@@ -82585,7 +82559,7 @@
       <c r="B301" t="s">
         <v>5384</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="1" t="s">
         <v>5695</v>
       </c>
     </row>
@@ -82596,7 +82570,7 @@
       <c r="B302" t="s">
         <v>5385</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="1" t="s">
         <v>5696</v>
       </c>
     </row>
@@ -82607,7 +82581,7 @@
       <c r="B303" t="s">
         <v>5386</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="1" t="s">
         <v>5697</v>
       </c>
     </row>
@@ -82618,7 +82592,7 @@
       <c r="B304" t="s">
         <v>5387</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="1" t="s">
         <v>5698</v>
       </c>
     </row>
@@ -82629,7 +82603,7 @@
       <c r="B305" t="s">
         <v>5388</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="1" t="s">
         <v>5699</v>
       </c>
     </row>
@@ -82640,7 +82614,7 @@
       <c r="B306" t="s">
         <v>5389</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="1" t="s">
         <v>5700</v>
       </c>
     </row>
@@ -82651,7 +82625,7 @@
       <c r="B307" t="s">
         <v>5390</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="1" t="s">
         <v>5701</v>
       </c>
     </row>
@@ -82662,7 +82636,7 @@
       <c r="B308" t="s">
         <v>5391</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="1" t="s">
         <v>5702</v>
       </c>
     </row>
@@ -82673,7 +82647,7 @@
       <c r="B309" t="s">
         <v>5392</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="1" t="s">
         <v>5703</v>
       </c>
     </row>
@@ -82684,7 +82658,7 @@
       <c r="B310" t="s">
         <v>5393</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="1" t="s">
         <v>5704</v>
       </c>
     </row>
@@ -82695,7 +82669,7 @@
       <c r="B311" t="s">
         <v>5394</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="1" t="s">
         <v>5705</v>
       </c>
     </row>
@@ -82706,7 +82680,7 @@
       <c r="B312" t="s">
         <v>5395</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="1" t="s">
         <v>5706</v>
       </c>
     </row>
@@ -82717,7 +82691,7 @@
       <c r="B313" t="s">
         <v>5396</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="1" t="s">
         <v>5707</v>
       </c>
     </row>
@@ -82728,7 +82702,7 @@
       <c r="B314" t="s">
         <v>5397</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="1" t="s">
         <v>5708</v>
       </c>
     </row>
@@ -82739,7 +82713,7 @@
       <c r="B315" t="s">
         <v>5398</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="1" t="s">
         <v>5709</v>
       </c>
     </row>
@@ -82750,7 +82724,7 @@
       <c r="B316" t="s">
         <v>5399</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="1" t="s">
         <v>5710</v>
       </c>
     </row>
@@ -82761,7 +82735,7 @@
       <c r="B317" t="s">
         <v>5358</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="1" t="s">
         <v>5669</v>
       </c>
     </row>
